--- a/casedata/供应链场景excel报告测试.xlsx
+++ b/casedata/供应链场景excel报告测试.xlsx
@@ -60,34 +60,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>应用信息,检出组件信息,检出路径列表,漏洞信息,许可证信息,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="6"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>代码溯源分析信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -107,7 +80,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,许可证冲突</t>
+      <t>,代码溯源分析信息,许可证冲突</t>
     </r>
   </si>
   <si>
@@ -121,6 +94,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>应用名称,版本号,应用资产属性,来源,供应链场景,所属项目,项目负责人,</t>
     </r>
     <r>
@@ -268,6 +248,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>XMIRROR编号,CVE编号,CNNVD编号,CNVD编号,CWE编号,漏洞名称,漏洞类型,攻击类型,利用难度,利用难度,是否可修复,</t>
     </r>
     <r>
@@ -1523,9 +1510,9 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="5"/>

--- a/casedata/供应链场景excel报告测试.xlsx
+++ b/casedata/供应链场景excel报告测试.xlsx
@@ -60,6 +60,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>应用信息,检出组件信息,检出路径列表,漏洞信息,许可证信息,</t>
     </r>
     <r>
@@ -1512,13 +1519,13 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="108.875" style="3" customWidth="1"/>
